--- a/output/Tables.xlsx
+++ b/output/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5D8BF6-F111-004E-BDB0-FE75CBD8659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558914DD-6E9E-DF49-8030-BC4459E96E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" activeTab="3" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
+    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table 3" sheetId="3" r:id="rId3"/>
     <sheet name="Table 4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -302,10 +302,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -388,6 +389,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -713,11 +715,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F9A2F-4B68-B842-A572-733E1D6203CD}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,771 +756,771 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>26638</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>23670.2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>29975.200000000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>27335.9</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>23882.5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>31173.3</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>28559.7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>26025.599999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>31454.9</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>28048.3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>24952.1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>31578.3</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>24766.400000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>21444.400000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>28610.400000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>26645.9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>22855.8</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>30872</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>7.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>24247.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>21542.6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>27249.9</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>19683.7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>16877.099999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>22813.8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>-18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>27614.7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>25218</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>30358.400000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>20739.5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>18213.7</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>23559.7</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>-24.9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>21468.9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>18492.7</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>24880.2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>18765.3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>15692</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>22287.200000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>-12.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>15328.5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>15259</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>15405.1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>13773.4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>13562.1</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>13999.4</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>-10.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>18597.400000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>18493.400000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>18704.2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>15825.4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>15570.5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>16099.3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>-14.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>12144.9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>12071.1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>12222.8</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>11785.7</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>11616.5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>11965.2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>13932</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>13867.4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>14001.4</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>8963.6</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>8772.7999999999993</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>9171.5</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>-35.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>18194.2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>18091.7</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>18298.5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>10956.5</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>10719.3</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>11216.1</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>-39.799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>10256.4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>10195.5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>10320.5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>7120.7</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>6976.1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>7277.4</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>-30.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>11309.5</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>8360.1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>14702.3</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>13562.5</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>10140.5</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>17380.2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>9962.2999999999993</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>7430</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>12867.2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>12222.9</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>9140.7000000000007</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>15637.6</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>22.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>12621.5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>9294.5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>16503.900000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>14860.2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>11084.7</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>19091.5</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>17.7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>10315.5</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>7631.4</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>13379.2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>10720.1</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>7955.2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>13795.9</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>9420.5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>7025.3</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>12168.4</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>9783</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>7259.8</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>12543.3</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>11212.6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>8225.7999999999993</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>14644.2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>11644.5</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>8632.6</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>15179.5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>77.430000000000007</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>77.400000000000006</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>77.5</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>82.18</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>82</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>82.3</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>6.13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>74.2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>74.099999999999994</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>74.3</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>80.05</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>79.900000000000006</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>80.2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>7.88</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>80.63</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>80.599999999999994</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>80.7</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>84.27</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>84.1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <v>84.4</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <v>4.51</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>254.67</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>224.8</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>285.89999999999998</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>127.75</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>116.1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <v>140.80000000000001</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>-49.84</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>286.58999999999997</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>252.9</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>320.7</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>138.63999999999999</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>123.9</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="5">
         <v>155.19999999999999</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <v>-51.62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>221.14</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>193.1</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>250.8</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>116.34</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>107.8</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <v>125.7</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <v>-47.39</v>
       </c>
     </row>
@@ -1528,9 +1535,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1559,583 +1569,583 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1510.1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1370.3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1669.9</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>1176.2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>1029.2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1345.7</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>-22.1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>21940.7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>19303.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>24979.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>23641.3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>20598.099999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>27092.9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>7.8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>3187.1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>2901.4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>3565.8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2518.4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>2170.4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>2959.5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>-21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>4710.8999999999996</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>4572.2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>4819.7</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>5319.8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>5025</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>5576.9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>12.9</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>5232</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>4960.3999999999996</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>5456.1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>3840.6</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>3513.2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>4130.3999999999996</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>-26.6</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>2782.6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>2019.9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>3641.2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>3569.8</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>2573.6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>4712.6000000000004</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>28.3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1487.9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>825.9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>2436.6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>1881.6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>1150.5999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>2989.7</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>26.5</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>1870.9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>1367.1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>2451.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>1821</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>1333.8</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>2368.3000000000002</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>-2.7</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>1590</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>1292.7</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>1993.6</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>1416.6</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1098.2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>1828.2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>-10.9</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>1198.5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>983.3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>1483.9</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>1309.8</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>1027.7</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>1676.6</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>987.3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>879.3</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>1110.5999999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>1222.2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>1064.5999999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>1368.1</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>23.8</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>714</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>634.29999999999995</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>808.5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>1216.3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>1012.7</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>1443.5</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>70.3</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>597.5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>470.1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>736.9</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>1066.5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>887.1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>1268.3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>78.5</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>803.7</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>732.6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>888.6</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>905.2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>817.3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>1005.8</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>12.6</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>547.20000000000005</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>376.6</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>772.3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>747.7</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>522.20000000000005</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>1036.3</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>36.6</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>921.9</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>893.2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>950.8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>706.4</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>668.4</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>745.1</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>-23.4</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>616.79999999999995</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>429.1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>872</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>634.1</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>441.7</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>899</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>2.8</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>1066.7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>1004.9</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>1138</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>502.2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>450.9</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>561.9</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>-52.9</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>507</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>454</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>579</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>425</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>362.5</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>493.2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>-16.2</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>563.1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>510.9</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>622.6</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>377.8</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>331.4</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>430.4</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>-32.9</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2150,9 +2160,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,693 +2188,693 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>9</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>7</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>13</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>17</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>33</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>44695</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>19</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>17</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>32</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>18</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>15</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>13</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>16</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>9</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>11</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>15</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>12</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>15</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>13</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>24</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>19</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>36</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>44695</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>26</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>21</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>19</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>18</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>16</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>25</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>19</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>14</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>15</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>11</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>14</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>7</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>50</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>46</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>88</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>60</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>45</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>76</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>58</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>63</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>82</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>4</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>44695</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>7</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>14</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>145</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>144</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>162</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>52</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>19</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>37</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>128</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>117</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>145</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>8</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>11</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>12</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>11</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>10</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>10</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>8</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>11</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>15</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>11</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>18</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>34</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>10</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>18</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>35</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>11</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>18</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>35</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>39</v>
       </c>
     </row>
@@ -2874,11 +2887,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DD7B8-20AA-DC44-A38E-EC1E7172E95B}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2907,554 +2923,554 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>-22.96</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>-36.72</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>-40.83</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>-39.590000000000003</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>-51.72</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>-43.18</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>10</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>-16.54</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>-5.91</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>-22.57</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>-23.71</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>-27.2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>-19.190000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>8</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>-31.35</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>-26.79</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>-40.130000000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>-27.62</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>-36.520000000000003</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>-26.77</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>17</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>-14.5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>-28.6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>-45.1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>-42.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>-52.1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>-57.8</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>14</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>-24.1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>-23.9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>-24.2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-26.7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>-30.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>-19.399999999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>16</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>-53.3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>-38.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>-56.6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>-61.1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>-59.3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>-48.6</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>9</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>-14.2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>6.7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>-25.6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>-31.3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>-44.1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>-6.4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>-17.2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>-10.3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>-30.9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>-22.8</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>-46</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>-25.7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>16</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>-2.1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>1.2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>-0.3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>2.6</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>20</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>0.7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>10.5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>-0.4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>3.3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>0.4</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>-2.1</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>7</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>94.6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>161.4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>14.2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>31.9</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>-2.7</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>-5.9</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>27</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>14.6</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>33.5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>7.3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>13.3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>-13.9</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>12.5</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>15</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>0.5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>-4.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>0.1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>2.4</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>4.3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>8</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>-5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>-1.4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>-6</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>-5.7</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>-5.3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>-7.3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>21</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>7.3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>6.3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>-0.8</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>0.7</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>-1.2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>32</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>-23.4</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>-21.2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>-23.9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>-31.4</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>-29.2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>-17.2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>-54.6</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>-39.700000000000003</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>-65.2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>-62</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>-70.3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>-14.5</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>22</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>-18.3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>-18.3</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>-22.1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>-31.5</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>-39.4</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>6</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>-20</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>-22.2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>-36.9</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>-21.6</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>1.7</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>-10.4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>22</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>26</v>
       </c>
     </row>

--- a/output/Tables.xlsx
+++ b/output/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558914DD-6E9E-DF49-8030-BC4459E96E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4351A-37BF-BF4B-B1DC-B2B9E300F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
   </bookViews>
@@ -715,9 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F9A2F-4B68-B842-A572-733E1D6203CD}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1343,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="5">
-        <v>77.430000000000007</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="E20" s="5">
         <v>77.400000000000006</v>
@@ -1352,7 +1350,7 @@
         <v>77.5</v>
       </c>
       <c r="G20" s="5">
-        <v>82.18</v>
+        <v>82.2</v>
       </c>
       <c r="H20" s="5">
         <v>82</v>
@@ -1361,7 +1359,7 @@
         <v>82.3</v>
       </c>
       <c r="J20" s="5">
-        <v>6.13</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1382,7 @@
         <v>74.3</v>
       </c>
       <c r="G21" s="5">
-        <v>80.05</v>
+        <v>80</v>
       </c>
       <c r="H21" s="5">
         <v>79.900000000000006</v>
@@ -1393,7 +1391,7 @@
         <v>80.2</v>
       </c>
       <c r="J21" s="5">
-        <v>7.88</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1407,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="5">
-        <v>80.63</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E22" s="5">
         <v>80.599999999999994</v>
@@ -1416,7 +1414,7 @@
         <v>80.7</v>
       </c>
       <c r="G22" s="5">
-        <v>84.27</v>
+        <v>84.3</v>
       </c>
       <c r="H22" s="5">
         <v>84.1</v>
@@ -1425,7 +1423,7 @@
         <v>84.4</v>
       </c>
       <c r="J22" s="5">
-        <v>4.51</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="5">
-        <v>254.67</v>
+        <v>254.7</v>
       </c>
       <c r="E23" s="5">
         <v>224.8</v>
@@ -1448,7 +1446,7 @@
         <v>285.89999999999998</v>
       </c>
       <c r="G23" s="5">
-        <v>127.75</v>
+        <v>127.8</v>
       </c>
       <c r="H23" s="5">
         <v>116.1</v>
@@ -1457,7 +1455,7 @@
         <v>140.80000000000001</v>
       </c>
       <c r="J23" s="5">
-        <v>-49.84</v>
+        <v>-49.8</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="5">
-        <v>286.58999999999997</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="E24" s="5">
         <v>252.9</v>
@@ -1480,7 +1478,7 @@
         <v>320.7</v>
       </c>
       <c r="G24" s="5">
-        <v>138.63999999999999</v>
+        <v>138.6</v>
       </c>
       <c r="H24" s="5">
         <v>123.9</v>
@@ -1489,7 +1487,7 @@
         <v>155.19999999999999</v>
       </c>
       <c r="J24" s="5">
-        <v>-51.62</v>
+        <v>-51.6</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1501,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="5">
-        <v>221.14</v>
+        <v>221.1</v>
       </c>
       <c r="E25" s="5">
         <v>193.1</v>
@@ -1512,7 +1510,7 @@
         <v>250.8</v>
       </c>
       <c r="G25" s="5">
-        <v>116.34</v>
+        <v>116.3</v>
       </c>
       <c r="H25" s="5">
         <v>107.8</v>
@@ -1521,7 +1519,7 @@
         <v>125.7</v>
       </c>
       <c r="J25" s="5">
-        <v>-47.39</v>
+        <v>-47.4</v>
       </c>
     </row>
   </sheetData>

--- a/output/Tables.xlsx
+++ b/output/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4351A-37BF-BF4B-B1DC-B2B9E300F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF6E5C-9DA3-2C4E-8D40-36E37C85C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
+    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" activeTab="2" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="84">
   <si>
     <t>Measure</t>
   </si>
@@ -244,18 +244,6 @@
     <t>2019 rank</t>
   </si>
   <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>15-49</t>
-  </si>
-  <si>
-    <t>50-69</t>
-  </si>
-  <si>
-    <t>70+</t>
-  </si>
-  <si>
     <t>&lt;1 year</t>
   </si>
   <si>
@@ -287,6 +275,21 @@
   </si>
   <si>
     <t>Diabetes &amp; kidney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     &lt;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     15-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     50-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     70+</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F9A2F-4B68-B842-A572-733E1D6203CD}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:J25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1531,7 +1536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB14FD5-0144-874E-A9D0-1FCB207D59E0}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2156,7 +2163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A301AA-3A93-4743-A227-2C81625309D0}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2263,7 +2272,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -2285,8 +2294,8 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>44695</v>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -2309,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5">
         <v>19</v>
@@ -2332,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5">
         <v>18</v>
@@ -2355,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5">
         <v>13</v>
@@ -2447,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -2469,8 +2478,8 @@
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
-        <v>44695</v>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="5">
         <v>26</v>
@@ -2493,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D15" s="5">
         <v>18</v>
@@ -2516,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D16" s="5">
         <v>19</v>
@@ -2539,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D17" s="5">
         <v>11</v>
@@ -2631,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -2653,8 +2662,8 @@
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="6">
-        <v>44695</v>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
@@ -2677,7 +2686,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D23" s="5">
         <v>145</v>
@@ -2700,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D24" s="5">
         <v>52</v>
@@ -2723,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D25" s="5">
         <v>128</v>
@@ -2746,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5">
         <v>8</v>
@@ -2769,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5">
         <v>11</v>
@@ -2792,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5">
         <v>8</v>
@@ -2809,7 +2818,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>12</v>
@@ -2832,7 +2841,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>13</v>
@@ -2855,7 +2864,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>14</v>
@@ -2897,28 +2906,28 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3242,7 +3251,7 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5">
         <v>14.6</v>

--- a/output/Tables.xlsx
+++ b/output/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/Canada-Burden-of-Disease-main/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF6E5C-9DA3-2C4E-8D40-36E37C85C769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA115B20-5D12-A047-832E-8CFD4D2D00DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" activeTab="2" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
+    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="84">
   <si>
     <t>Measure</t>
   </si>
@@ -718,9 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F9A2F-4B68-B842-A572-733E1D6203CD}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:J25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1535,1364 +1533,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB14FD5-0144-874E-A9D0-1FCB207D59E0}">
   <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1510.1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1370.3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1669.9</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1176.2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1029.2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1345.7</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-22.1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5">
-        <v>21940.7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>19303.5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>24979.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>23641.3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>20598.099999999999</v>
-      </c>
-      <c r="G3" s="5">
-        <v>27092.9</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3187.1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2901.4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3565.8</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2518.4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2170.4</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2959.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4710.8999999999996</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4572.2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4819.7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5319.8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5025</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5576.9</v>
-      </c>
-      <c r="H5" s="5">
-        <v>12.9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5232</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4960.3999999999996</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5456.1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3840.6</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3513.2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4130.3999999999996</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-26.6</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2782.6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2019.9</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3641.2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3569.8</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2573.6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4712.6000000000004</v>
-      </c>
-      <c r="H7" s="5">
-        <v>28.3</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1487.9</v>
-      </c>
-      <c r="C8" s="5">
-        <v>825.9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2436.6</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1881.6</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1150.5999999999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2989.7</v>
-      </c>
-      <c r="H8" s="5">
-        <v>26.5</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1870.9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1367.1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2451.5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1821</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1333.8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2368.3000000000002</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-2.7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1590</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1292.7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1993.6</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1416.6</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1098.2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1828.2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-10.9</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1198.5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>983.3</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1483.9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1309.8</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1027.7</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1676.6</v>
-      </c>
-      <c r="H11" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="5">
-        <v>987.3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>879.3</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1110.5999999999999</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1222.2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1064.5999999999999</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1368.1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>23.8</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5">
-        <v>714</v>
-      </c>
-      <c r="C13" s="5">
-        <v>634.29999999999995</v>
-      </c>
-      <c r="D13" s="5">
-        <v>808.5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1216.3</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1012.7</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1443.5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>70.3</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5">
-        <v>597.5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>470.1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>736.9</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1066.5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>887.1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1268.3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>78.5</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5">
-        <v>803.7</v>
-      </c>
-      <c r="C15" s="5">
-        <v>732.6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>888.6</v>
-      </c>
-      <c r="E15" s="5">
-        <v>905.2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>817.3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1005.8</v>
-      </c>
-      <c r="H15" s="5">
-        <v>12.6</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5">
-        <v>547.20000000000005</v>
-      </c>
-      <c r="C16" s="5">
-        <v>376.6</v>
-      </c>
-      <c r="D16" s="5">
-        <v>772.3</v>
-      </c>
-      <c r="E16" s="5">
-        <v>747.7</v>
-      </c>
-      <c r="F16" s="5">
-        <v>522.20000000000005</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1036.3</v>
-      </c>
-      <c r="H16" s="5">
-        <v>36.6</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="5">
-        <v>921.9</v>
-      </c>
-      <c r="C17" s="5">
-        <v>893.2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>950.8</v>
-      </c>
-      <c r="E17" s="5">
-        <v>706.4</v>
-      </c>
-      <c r="F17" s="5">
-        <v>668.4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>745.1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>-23.4</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5">
-        <v>616.79999999999995</v>
-      </c>
-      <c r="C18" s="5">
-        <v>429.1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>872</v>
-      </c>
-      <c r="E18" s="5">
-        <v>634.1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>441.7</v>
-      </c>
-      <c r="G18" s="5">
-        <v>899</v>
-      </c>
-      <c r="H18" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1066.7</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1004.9</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1138</v>
-      </c>
-      <c r="E19" s="5">
-        <v>502.2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>450.9</v>
-      </c>
-      <c r="G19" s="5">
-        <v>561.9</v>
-      </c>
-      <c r="H19" s="5">
-        <v>-52.9</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="5">
-        <v>507</v>
-      </c>
-      <c r="C20" s="5">
-        <v>454</v>
-      </c>
-      <c r="D20" s="5">
-        <v>579</v>
-      </c>
-      <c r="E20" s="5">
-        <v>425</v>
-      </c>
-      <c r="F20" s="5">
-        <v>362.5</v>
-      </c>
-      <c r="G20" s="5">
-        <v>493.2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>-16.2</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="5">
-        <v>563.1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>510.9</v>
-      </c>
-      <c r="D21" s="5">
-        <v>622.6</v>
-      </c>
-      <c r="E21" s="5">
-        <v>377.8</v>
-      </c>
-      <c r="F21" s="5">
-        <v>331.4</v>
-      </c>
-      <c r="G21" s="5">
-        <v>430.4</v>
-      </c>
-      <c r="H21" s="5">
-        <v>-32.9</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A301AA-3A93-4743-A227-2C81625309D0}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="5">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="5">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="5">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5">
-        <v>15</v>
-      </c>
-      <c r="G10" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="5">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5">
-        <v>36</v>
-      </c>
-      <c r="G13" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="5">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="5">
-        <v>18</v>
-      </c>
-      <c r="E15" s="5">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5">
-        <v>25</v>
-      </c>
-      <c r="G15" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="5">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="5">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5">
-        <v>50</v>
-      </c>
-      <c r="E18" s="5">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5">
-        <v>88</v>
-      </c>
-      <c r="G18" s="5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5">
-        <v>60</v>
-      </c>
-      <c r="E19" s="5">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5">
-        <v>76</v>
-      </c>
-      <c r="G19" s="5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5">
-        <v>58</v>
-      </c>
-      <c r="E20" s="5">
-        <v>63</v>
-      </c>
-      <c r="F20" s="5">
-        <v>82</v>
-      </c>
-      <c r="G20" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5">
-        <v>14</v>
-      </c>
-      <c r="G22" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="5">
-        <v>145</v>
-      </c>
-      <c r="E23" s="5">
-        <v>144</v>
-      </c>
-      <c r="F23" s="5">
-        <v>162</v>
-      </c>
-      <c r="G23" s="5">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="5">
-        <v>52</v>
-      </c>
-      <c r="E24" s="5">
-        <v>19</v>
-      </c>
-      <c r="F24" s="5">
-        <v>37</v>
-      </c>
-      <c r="G24" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="5">
-        <v>128</v>
-      </c>
-      <c r="E25" s="5">
-        <v>117</v>
-      </c>
-      <c r="F25" s="5">
-        <v>145</v>
-      </c>
-      <c r="G25" s="5">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="5">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5">
-        <v>11</v>
-      </c>
-      <c r="F26" s="5">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="5">
-        <v>11</v>
-      </c>
-      <c r="E27" s="5">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5">
-        <v>10</v>
-      </c>
-      <c r="G27" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="5">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5">
-        <v>11</v>
-      </c>
-      <c r="F28" s="5">
-        <v>15</v>
-      </c>
-      <c r="G28" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="5">
-        <v>11</v>
-      </c>
-      <c r="E29" s="5">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5">
-        <v>34</v>
-      </c>
-      <c r="G29" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="5">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5">
-        <v>18</v>
-      </c>
-      <c r="F30" s="5">
-        <v>35</v>
-      </c>
-      <c r="G30" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="5">
-        <v>11</v>
-      </c>
-      <c r="E31" s="5">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5">
-        <v>35</v>
-      </c>
-      <c r="G31" s="5">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DD7B8-20AA-DC44-A38E-EC1E7172E95B}">
-  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2906,28 +1546,28 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2935,27 +1575,27 @@
         <v>25</v>
       </c>
       <c r="B2" s="5">
-        <v>-22.96</v>
+        <v>1510.1</v>
       </c>
       <c r="C2" s="5">
-        <v>-36.72</v>
+        <v>1370.3</v>
       </c>
       <c r="D2" s="5">
-        <v>-40.83</v>
+        <v>1669.9</v>
       </c>
       <c r="E2" s="5">
-        <v>-39.590000000000003</v>
+        <v>1176.2</v>
       </c>
       <c r="F2" s="5">
-        <v>-51.72</v>
+        <v>1029.2</v>
       </c>
       <c r="G2" s="5">
-        <v>-43.18</v>
+        <v>1345.7</v>
       </c>
       <c r="H2" s="5">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5">
+        <v>-22.1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2964,28 +1604,28 @@
         <v>27</v>
       </c>
       <c r="B3" s="5">
-        <v>-16.54</v>
+        <v>21940.7</v>
       </c>
       <c r="C3" s="5">
-        <v>-5.91</v>
+        <v>19303.5</v>
       </c>
       <c r="D3" s="5">
-        <v>-22.57</v>
+        <v>24979.5</v>
       </c>
       <c r="E3" s="5">
-        <v>-23.71</v>
+        <v>23641.3</v>
       </c>
       <c r="F3" s="5">
-        <v>-27.2</v>
+        <v>20598.099999999999</v>
       </c>
       <c r="G3" s="5">
-        <v>-19.190000000000001</v>
+        <v>27092.9</v>
       </c>
       <c r="H3" s="5">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>19</v>
+        <v>7.8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2993,6 +1633,1360 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
+        <v>3187.1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2901.4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3565.8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2518.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2170.4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2959.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4710.8999999999996</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4572.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4819.7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5319.8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5025</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5576.9</v>
+      </c>
+      <c r="H5" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5232</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4960.3999999999996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5456.1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3840.6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3513.2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4130.3999999999996</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-26.6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2782.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2019.9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3641.2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3569.8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2573.6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4712.6000000000004</v>
+      </c>
+      <c r="H7" s="5">
+        <v>28.3</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1487.9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>825.9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2436.6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1881.6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1150.5999999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2989.7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1870.9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1367.1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2451.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1821</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1333.8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2368.3000000000002</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-2.7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1590</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1292.7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1993.6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1416.6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1098.2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1828.2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-10.9</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1198.5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>983.3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1483.9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1309.8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1027.7</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1676.6</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5">
+        <v>987.3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>879.3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1110.5999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1222.2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1064.5999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1368.1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5">
+        <v>714</v>
+      </c>
+      <c r="C13" s="5">
+        <v>634.29999999999995</v>
+      </c>
+      <c r="D13" s="5">
+        <v>808.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1216.3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1012.7</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1443.5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>70.3</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5">
+        <v>597.5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>470.1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>736.9</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1066.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>887.1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1268.3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5">
+        <v>803.7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>732.6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>888.6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>905.2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>817.3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1005.8</v>
+      </c>
+      <c r="H15" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5">
+        <v>547.20000000000005</v>
+      </c>
+      <c r="C16" s="5">
+        <v>376.6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>772.3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>747.7</v>
+      </c>
+      <c r="F16" s="5">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1036.3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>36.6</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5">
+        <v>921.9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>893.2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>950.8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>706.4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>668.4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>745.1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-23.4</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="5">
+        <v>616.79999999999995</v>
+      </c>
+      <c r="C18" s="5">
+        <v>429.1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>872</v>
+      </c>
+      <c r="E18" s="5">
+        <v>634.1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>441.7</v>
+      </c>
+      <c r="G18" s="5">
+        <v>899</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1066.7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1004.9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1138</v>
+      </c>
+      <c r="E19" s="5">
+        <v>502.2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>450.9</v>
+      </c>
+      <c r="G19" s="5">
+        <v>561.9</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-52.9</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5">
+        <v>507</v>
+      </c>
+      <c r="C20" s="5">
+        <v>454</v>
+      </c>
+      <c r="D20" s="5">
+        <v>579</v>
+      </c>
+      <c r="E20" s="5">
+        <v>425</v>
+      </c>
+      <c r="F20" s="5">
+        <v>362.5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>493.2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-16.2</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="5">
+        <v>563.1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>510.9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>622.6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>377.8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>331.4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>430.4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>-32.9</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A301AA-3A93-4743-A227-2C81625309D0}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="5">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5">
+        <v>25</v>
+      </c>
+      <c r="G15" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="5">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="5">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5">
+        <v>88</v>
+      </c>
+      <c r="G18" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45</v>
+      </c>
+      <c r="F19" s="5">
+        <v>76</v>
+      </c>
+      <c r="G19" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5">
+        <v>63</v>
+      </c>
+      <c r="F20" s="5">
+        <v>82</v>
+      </c>
+      <c r="G20" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5">
+        <v>145</v>
+      </c>
+      <c r="E23" s="5">
+        <v>144</v>
+      </c>
+      <c r="F23" s="5">
+        <v>162</v>
+      </c>
+      <c r="G23" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="5">
+        <v>52</v>
+      </c>
+      <c r="E24" s="5">
+        <v>19</v>
+      </c>
+      <c r="F24" s="5">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="5">
+        <v>128</v>
+      </c>
+      <c r="E25" s="5">
+        <v>117</v>
+      </c>
+      <c r="F25" s="5">
+        <v>145</v>
+      </c>
+      <c r="G25" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="5">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5">
+        <v>11</v>
+      </c>
+      <c r="F28" s="5">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5">
+        <v>18</v>
+      </c>
+      <c r="F29" s="5">
+        <v>34</v>
+      </c>
+      <c r="G29" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5">
+        <v>35</v>
+      </c>
+      <c r="G30" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="5">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5">
+        <v>35</v>
+      </c>
+      <c r="G31" s="5">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645DD7B8-20AA-DC44-A38E-EC1E7172E95B}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-22.96</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-36.72</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-40.83</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-39.590000000000003</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-51.72</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-43.18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-16.54</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-5.91</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-22.57</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-23.71</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-27.2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-19.190000000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
         <v>-31.35</v>
       </c>
       <c r="C4" s="5">
@@ -3048,144 +3042,144 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5">
-        <v>-24.1</v>
+        <v>-36.6</v>
       </c>
       <c r="C6" s="5">
-        <v>-23.9</v>
+        <v>-32.5</v>
       </c>
       <c r="D6" s="5">
-        <v>-24.2</v>
+        <v>-39</v>
       </c>
       <c r="E6" s="5">
-        <v>-26.7</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="F6" s="5">
-        <v>-30.5</v>
+        <v>-54.4</v>
       </c>
       <c r="G6" s="5">
-        <v>-19.399999999999999</v>
+        <v>-20.7</v>
       </c>
       <c r="H6" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5">
-        <v>-53.3</v>
+        <v>-24.1</v>
       </c>
       <c r="C7" s="5">
-        <v>-38.5</v>
+        <v>-23.9</v>
       </c>
       <c r="D7" s="5">
-        <v>-56.6</v>
+        <v>-24.2</v>
       </c>
       <c r="E7" s="5">
-        <v>-61.1</v>
+        <v>-26.7</v>
       </c>
       <c r="F7" s="5">
-        <v>-59.3</v>
+        <v>-30.5</v>
       </c>
       <c r="G7" s="5">
-        <v>-48.6</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="H7" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I7" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5">
-        <v>-14.2</v>
+        <v>-53.3</v>
       </c>
       <c r="C8" s="5">
-        <v>6.7</v>
+        <v>-38.5</v>
       </c>
       <c r="D8" s="5">
-        <v>-25.6</v>
+        <v>-56.6</v>
       </c>
       <c r="E8" s="5">
-        <v>-31.3</v>
+        <v>-61.1</v>
       </c>
       <c r="F8" s="5">
-        <v>-44.1</v>
+        <v>-59.3</v>
       </c>
       <c r="G8" s="5">
-        <v>-6.4</v>
+        <v>-48.6</v>
       </c>
       <c r="H8" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5">
-        <v>-17.2</v>
+        <v>-14.2</v>
       </c>
       <c r="C9" s="5">
-        <v>-10.3</v>
+        <v>6.7</v>
       </c>
       <c r="D9" s="5">
-        <v>-30.9</v>
+        <v>-25.6</v>
       </c>
       <c r="E9" s="5">
-        <v>-22.8</v>
+        <v>-31.3</v>
       </c>
       <c r="F9" s="5">
-        <v>-46</v>
+        <v>-44.1</v>
       </c>
       <c r="G9" s="5">
-        <v>-25.7</v>
+        <v>-6.4</v>
       </c>
       <c r="H9" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5">
-        <v>-2.1</v>
+        <v>-17.2</v>
       </c>
       <c r="C10" s="5">
-        <v>-1.1000000000000001</v>
+        <v>-10.3</v>
       </c>
       <c r="D10" s="5">
-        <v>1.2</v>
+        <v>-30.9</v>
       </c>
       <c r="E10" s="5">
-        <v>-0.3</v>
+        <v>-22.8</v>
       </c>
       <c r="F10" s="5">
-        <v>4.0999999999999996</v>
+        <v>-46</v>
       </c>
       <c r="G10" s="5">
-        <v>2.6</v>
+        <v>-25.7</v>
       </c>
       <c r="H10" s="5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="5">
         <v>20</v>
@@ -3193,291 +3187,320 @@
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5">
-        <v>0.7</v>
+        <v>-2.1</v>
       </c>
       <c r="C11" s="5">
-        <v>10.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D11" s="5">
-        <v>-0.4</v>
+        <v>1.2</v>
       </c>
       <c r="E11" s="5">
-        <v>3.3</v>
+        <v>-0.3</v>
       </c>
       <c r="F11" s="5">
-        <v>0.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G11" s="5">
-        <v>-2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H11" s="5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I11" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5">
-        <v>94.6</v>
+        <v>0.7</v>
       </c>
       <c r="C12" s="5">
-        <v>161.4</v>
+        <v>10.5</v>
       </c>
       <c r="D12" s="5">
-        <v>14.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E12" s="5">
-        <v>31.9</v>
+        <v>3.3</v>
       </c>
       <c r="F12" s="5">
-        <v>-2.7</v>
+        <v>0.4</v>
       </c>
       <c r="G12" s="5">
-        <v>-5.9</v>
+        <v>-2.1</v>
       </c>
       <c r="H12" s="5">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I12" s="5">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5">
-        <v>14.6</v>
+        <v>94.6</v>
       </c>
       <c r="C13" s="5">
-        <v>33.5</v>
+        <v>161.4</v>
       </c>
       <c r="D13" s="5">
-        <v>7.3</v>
+        <v>14.2</v>
       </c>
       <c r="E13" s="5">
-        <v>13.3</v>
+        <v>31.9</v>
       </c>
       <c r="F13" s="5">
-        <v>-13.9</v>
+        <v>-2.7</v>
       </c>
       <c r="G13" s="5">
-        <v>12.5</v>
+        <v>-5.9</v>
       </c>
       <c r="H13" s="5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I13" s="5">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5">
-        <v>0.5</v>
+        <v>14.6</v>
       </c>
       <c r="C14" s="5">
-        <v>-4.2</v>
+        <v>33.5</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E14" s="5">
-        <v>0.1</v>
+        <v>13.3</v>
       </c>
       <c r="F14" s="5">
-        <v>2.4</v>
+        <v>-13.9</v>
       </c>
       <c r="G14" s="5">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="H14" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5">
-        <v>-5</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="5">
-        <v>-1.4</v>
+        <v>-4.2</v>
       </c>
       <c r="D15" s="5">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>-5.7</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="5">
-        <v>-5.3</v>
+        <v>2.4</v>
       </c>
       <c r="G15" s="5">
-        <v>-7.3</v>
+        <v>4.3</v>
       </c>
       <c r="H15" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I15" s="5">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
-        <v>7.3</v>
+        <v>-5</v>
       </c>
       <c r="C16" s="5">
-        <v>6.3</v>
+        <v>-1.4</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.8</v>
+        <v>-6</v>
       </c>
       <c r="E16" s="5">
-        <v>0.7</v>
+        <v>-5.7</v>
       </c>
       <c r="F16" s="5">
-        <v>-1.2</v>
+        <v>-5.3</v>
       </c>
       <c r="G16" s="5">
-        <v>5</v>
+        <v>-7.3</v>
       </c>
       <c r="H16" s="5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I16" s="5">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5">
-        <v>-23.4</v>
+        <v>7.3</v>
       </c>
       <c r="C17" s="5">
-        <v>-21.2</v>
+        <v>6.3</v>
       </c>
       <c r="D17" s="5">
-        <v>-23.9</v>
+        <v>-0.8</v>
       </c>
       <c r="E17" s="5">
-        <v>-31.4</v>
+        <v>0.7</v>
       </c>
       <c r="F17" s="5">
-        <v>-29.2</v>
+        <v>-1.2</v>
       </c>
       <c r="G17" s="5">
-        <v>-17.2</v>
+        <v>5</v>
       </c>
       <c r="H17" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I17" s="5">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5">
-        <v>-54.6</v>
+        <v>-23.4</v>
       </c>
       <c r="C18" s="5">
-        <v>-39.700000000000003</v>
+        <v>-21.2</v>
       </c>
       <c r="D18" s="5">
-        <v>-65.2</v>
+        <v>-23.9</v>
       </c>
       <c r="E18" s="5">
-        <v>-62</v>
+        <v>-31.4</v>
       </c>
       <c r="F18" s="5">
-        <v>-70.3</v>
+        <v>-29.2</v>
       </c>
       <c r="G18" s="5">
-        <v>-14.5</v>
+        <v>-17.2</v>
       </c>
       <c r="H18" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I18" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5">
-        <v>-18.3</v>
+        <v>-54.6</v>
       </c>
       <c r="C19" s="5">
-        <v>-18.3</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="D19" s="5">
-        <v>-22.1</v>
+        <v>-65.2</v>
       </c>
       <c r="E19" s="5">
-        <v>-8.1999999999999993</v>
+        <v>-62</v>
       </c>
       <c r="F19" s="5">
-        <v>-31.5</v>
+        <v>-70.3</v>
       </c>
       <c r="G19" s="5">
-        <v>-39.4</v>
+        <v>-14.5</v>
       </c>
       <c r="H19" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I19" s="5">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-18.3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-18.3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-22.1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-31.5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>-39.4</v>
+      </c>
+      <c r="H20" s="5">
+        <v>6</v>
+      </c>
+      <c r="I20" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>-20</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>-22.2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>-36.9</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>-21.6</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <v>1.7</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <v>-10.4</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <v>22</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <v>26</v>
       </c>
     </row>

--- a/output/Tables.xlsx
+++ b/output/Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/Canada-Burden-of-Disease-main/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA115B20-5D12-A047-832E-8CFD4D2D00DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C88E63-5D72-EE4D-88D2-B8F83D11C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
   </bookViews>
@@ -296,6 +296,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -384,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,6 +404,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,25 +780,25 @@
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>26638</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <v>23670.2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="9">
         <v>29975.200000000001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <v>27335.9</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="9">
         <v>23882.5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="9">
         <v>31173.3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>2.6</v>
       </c>
     </row>
@@ -799,25 +812,25 @@
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="9">
         <v>28559.7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="9">
         <v>26025.599999999999</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <v>31454.9</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <v>28048.3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="9">
         <v>24952.1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="9">
         <v>31578.3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="7">
         <v>-1.8</v>
       </c>
     </row>
@@ -831,25 +844,25 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="9">
         <v>24766.400000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <v>21444.400000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <v>28610.400000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="9">
         <v>26645.9</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="9">
         <v>22855.8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="9">
         <v>30872</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="7">
         <v>7.6</v>
       </c>
     </row>
@@ -863,25 +876,25 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>24247.5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <v>21542.6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9">
         <v>27249.9</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>19683.7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="9">
         <v>16877.099999999999</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="9">
         <v>22813.8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="7">
         <v>-18.8</v>
       </c>
     </row>
@@ -895,25 +908,25 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>27614.7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="9">
         <v>25218</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>30358.400000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="9">
         <v>20739.5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="9">
         <v>18213.7</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="9">
         <v>23559.7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="7">
         <v>-24.9</v>
       </c>
     </row>
@@ -927,25 +940,25 @@
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>21468.9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <v>18492.7</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>24880.2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>18765.3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="9">
         <v>15692</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="9">
         <v>22287.200000000001</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <v>-12.6</v>
       </c>
     </row>
@@ -959,25 +972,25 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="9">
         <v>15328.5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="9">
         <v>15259</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <v>15405.1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="9">
         <v>13773.4</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="9">
         <v>13562.1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="9">
         <v>13999.4</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="7">
         <v>-10.1</v>
       </c>
     </row>
@@ -991,25 +1004,25 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>18597.400000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <v>18493.400000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="9">
         <v>18704.2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="9">
         <v>15825.4</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="9">
         <v>15570.5</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="9">
         <v>16099.3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="7">
         <v>-14.9</v>
       </c>
     </row>
@@ -1023,25 +1036,25 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>12144.9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="9">
         <v>12071.1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="9">
         <v>12222.8</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="9">
         <v>11785.7</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="9">
         <v>11616.5</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="9">
         <v>11965.2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="7">
         <v>-3</v>
       </c>
     </row>
@@ -1055,25 +1068,25 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>13932</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="9">
         <v>13867.4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="9">
         <v>14001.4</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="9">
         <v>8963.6</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="9">
         <v>8772.7999999999993</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="9">
         <v>9171.5</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="7">
         <v>-35.700000000000003</v>
       </c>
     </row>
@@ -1087,25 +1100,25 @@
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>18194.2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="9">
         <v>18091.7</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="9">
         <v>18298.5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="9">
         <v>10956.5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="9">
         <v>10719.3</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="9">
         <v>11216.1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="7">
         <v>-39.799999999999997</v>
       </c>
     </row>
@@ -1119,25 +1132,25 @@
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>10256.4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="9">
         <v>10195.5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="9">
         <v>10320.5</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="9">
         <v>7120.7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="9">
         <v>6976.1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="9">
         <v>7277.4</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="7">
         <v>-30.6</v>
       </c>
     </row>
@@ -1151,25 +1164,25 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9">
         <v>11309.5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="9">
         <v>8360.1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="9">
         <v>14702.3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9">
         <v>13562.5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="9">
         <v>10140.5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="9">
         <v>17380.2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="7">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -1183,25 +1196,25 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="9">
         <v>9962.2999999999993</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="9">
         <v>7430</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="9">
         <v>12867.2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <v>12222.9</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="9">
         <v>9140.7000000000007</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="9">
         <v>15637.6</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="7">
         <v>22.7</v>
       </c>
     </row>
@@ -1215,25 +1228,25 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="9">
         <v>12621.5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="9">
         <v>9294.5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="9">
         <v>16503.900000000001</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="9">
         <v>14860.2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="9">
         <v>11084.7</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="9">
         <v>19091.5</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="7">
         <v>17.7</v>
       </c>
     </row>
@@ -1247,25 +1260,25 @@
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="9">
         <v>10315.5</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="9">
         <v>7631.4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="9">
         <v>13379.2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="9">
         <v>10720.1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="9">
         <v>7955.2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="9">
         <v>13795.9</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="7">
         <v>3.9</v>
       </c>
     </row>
@@ -1279,25 +1292,25 @@
       <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="9">
         <v>9420.5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="9">
         <v>7025.3</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="9">
         <v>12168.4</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="9">
         <v>9783</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="9">
         <v>7259.8</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="9">
         <v>12543.3</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="7">
         <v>3.8</v>
       </c>
     </row>
@@ -1311,25 +1324,25 @@
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="9">
         <v>11212.6</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="9">
         <v>8225.7999999999993</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="9">
         <v>14644.2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="9">
         <v>11644.5</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="9">
         <v>8632.6</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="9">
         <v>15179.5</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="7">
         <v>3.9</v>
       </c>
     </row>
@@ -1343,25 +1356,25 @@
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="9">
         <v>77.5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="9">
         <v>82.2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="9">
         <v>82</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="9">
         <v>82.3</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="7">
         <v>6.2</v>
       </c>
     </row>
@@ -1375,25 +1388,25 @@
       <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="9">
         <v>74.2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="9">
         <v>74.099999999999994</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="9">
         <v>74.3</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="9">
         <v>80</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="9">
         <v>79.900000000000006</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="9">
         <v>80.2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="7">
         <v>7.8</v>
       </c>
     </row>
@@ -1407,25 +1420,25 @@
       <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="9">
         <v>80.599999999999994</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="9">
         <v>80.599999999999994</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="9">
         <v>80.7</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="9">
         <v>84.3</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="9">
         <v>84.1</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="9">
         <v>84.4</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="7">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -1439,25 +1452,25 @@
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="9">
         <v>254.7</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="9">
         <v>224.8</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="9">
         <v>285.89999999999998</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="9">
         <v>127.8</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="9">
         <v>116.1</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="9">
         <v>140.80000000000001</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="7">
         <v>-49.8</v>
       </c>
     </row>
@@ -1471,25 +1484,25 @@
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="9">
         <v>286.60000000000002</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="9">
         <v>252.9</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="9">
         <v>320.7</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="9">
         <v>138.6</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="9">
         <v>123.9</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="9">
         <v>155.19999999999999</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="7">
         <v>-51.6</v>
       </c>
     </row>
@@ -1503,25 +1516,25 @@
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="9">
         <v>221.1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="9">
         <v>193.1</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="9">
         <v>250.8</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="9">
         <v>116.3</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="9">
         <v>107.8</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="9">
         <v>125.7</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="7">
         <v>-47.4</v>
       </c>
     </row>
@@ -1574,25 +1587,25 @@
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>1510.1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>1370.3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>1669.9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>1176.2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>1029.2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>1345.7</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>-22.1</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -1603,25 +1616,25 @@
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>21940.7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>19303.5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>24979.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>23641.3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>20598.099999999999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>27092.9</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>7.8</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -1632,25 +1645,25 @@
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>3187.1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>2901.4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>3565.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>2518.4</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>2170.4</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>2959.5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>-21</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1661,25 +1674,25 @@
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>4710.8999999999996</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>4572.2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>4819.7</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>5319.8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>5025</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>5576.9</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>12.9</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1690,25 +1703,25 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>5232</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>4960.3999999999996</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>5456.1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>3840.6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>3513.2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>4130.3999999999996</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>-26.6</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1719,25 +1732,25 @@
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>2782.6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>2019.9</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>3641.2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>3569.8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>2573.6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>4712.6000000000004</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>28.3</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -1748,25 +1761,25 @@
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>1487.9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>825.9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>2436.6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>1881.6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>1150.5999999999999</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>2989.7</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>26.5</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -1777,25 +1790,25 @@
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>1870.9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>1367.1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>2451.5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>1821</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>1333.8</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>2368.3000000000002</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>-2.7</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -1806,25 +1819,25 @@
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>1590</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>1292.7</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>1993.6</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>1416.6</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>1098.2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>1828.2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>-10.9</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1835,25 +1848,25 @@
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>1198.5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>983.3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>1483.9</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>1309.8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>1027.7</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>1676.6</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="7">
         <v>9.3000000000000007</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -1864,25 +1877,25 @@
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>987.3</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>879.3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>1110.5999999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>1222.2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>1064.5999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>1368.1</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>23.8</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -1893,25 +1906,25 @@
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>714</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>634.29999999999995</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>808.5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>1216.3</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>1012.7</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>1443.5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <v>70.3</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -1922,25 +1935,25 @@
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>597.5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>470.1</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>736.9</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>1066.5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>887.1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <v>1268.3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>78.5</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -1951,25 +1964,25 @@
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>803.7</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>732.6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>888.6</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>905.2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>817.3</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
         <v>1005.8</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <v>12.6</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -1980,25 +1993,25 @@
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>547.20000000000005</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>376.6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>772.3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>747.7</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>522.20000000000005</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>1036.3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <v>36.6</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -2009,25 +2022,25 @@
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>921.9</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>893.2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>950.8</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>706.4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>668.4</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>745.1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>-23.4</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -2038,25 +2051,25 @@
       <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>616.79999999999995</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>429.1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>872</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>634.1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <v>441.7</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>899</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>2.8</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -2067,25 +2080,25 @@
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>1066.7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>1004.9</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>1138</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>502.2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="7">
         <v>450.9</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <v>561.9</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="7">
         <v>-52.9</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -2096,25 +2109,25 @@
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>507</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>454</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>579</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>425</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>362.5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="7">
         <v>493.2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="7">
         <v>-16.2</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -2125,25 +2138,25 @@
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>563.1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>510.9</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>622.6</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>377.8</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <v>331.4</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <v>430.4</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="7">
         <v>-32.9</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -2199,16 +2212,16 @@
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>7</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>13</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="8">
         <v>24</v>
       </c>
     </row>
@@ -2222,16 +2235,16 @@
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>12</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>21</v>
       </c>
     </row>
@@ -2245,16 +2258,16 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>17</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="8">
         <v>26</v>
       </c>
     </row>
@@ -2268,16 +2281,16 @@
       <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>17</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>33</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="8">
         <v>40</v>
       </c>
     </row>
@@ -2291,16 +2304,16 @@
       <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2314,16 +2327,16 @@
       <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>19</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>17</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>32</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>44</v>
       </c>
     </row>
@@ -2337,16 +2350,16 @@
       <c r="C8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>18</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>11</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>15</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="8">
         <v>27</v>
       </c>
     </row>
@@ -2360,16 +2373,16 @@
       <c r="C9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>13</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>9</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="8">
         <v>14</v>
       </c>
     </row>
@@ -2383,16 +2396,16 @@
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>11</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="8">
         <v>15</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="8">
         <v>22</v>
       </c>
     </row>
@@ -2406,16 +2419,16 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>11</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>12</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>15</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="8">
         <v>19</v>
       </c>
     </row>
@@ -2429,16 +2442,16 @@
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>13</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="8">
         <v>24</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="8">
         <v>28</v>
       </c>
     </row>
@@ -2452,16 +2465,16 @@
       <c r="C13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>19</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="8">
         <v>36</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="8">
         <v>44</v>
       </c>
     </row>
@@ -2475,16 +2488,16 @@
       <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>26</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>21</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="8">
         <v>19</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="8">
         <v>31</v>
       </c>
     </row>
@@ -2498,16 +2511,16 @@
       <c r="C15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>18</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="8">
         <v>25</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="8">
         <v>31</v>
       </c>
     </row>
@@ -2521,16 +2534,16 @@
       <c r="C16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>19</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>14</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="8">
         <v>15</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="8">
         <v>24</v>
       </c>
     </row>
@@ -2544,16 +2557,16 @@
       <c r="C17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>11</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>14</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="8">
         <v>7</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="8">
         <v>12</v>
       </c>
     </row>
@@ -2567,16 +2580,16 @@
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>50</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>46</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="8">
         <v>88</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="8">
         <v>109</v>
       </c>
     </row>
@@ -2590,16 +2603,16 @@
       <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>60</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>45</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="8">
         <v>76</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="8">
         <v>106</v>
       </c>
     </row>
@@ -2613,16 +2626,16 @@
       <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>58</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>63</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="8">
         <v>82</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="8">
         <v>95</v>
       </c>
     </row>
@@ -2636,16 +2649,16 @@
       <c r="C21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2659,16 +2672,16 @@
       <c r="C22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>7</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="8">
         <v>14</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="8">
         <v>11</v>
       </c>
     </row>
@@ -2682,16 +2695,16 @@
       <c r="C23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <v>145</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>144</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="8">
         <v>162</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="8">
         <v>185</v>
       </c>
     </row>
@@ -2705,16 +2718,16 @@
       <c r="C24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <v>52</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>19</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="8">
         <v>37</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="8">
         <v>63</v>
       </c>
     </row>
@@ -2728,16 +2741,16 @@
       <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>128</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>117</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="8">
         <v>145</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="8">
         <v>146</v>
       </c>
     </row>
@@ -2751,16 +2764,16 @@
       <c r="C26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <v>8</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>11</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="8">
         <v>12</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="8">
         <v>16</v>
       </c>
     </row>
@@ -2774,16 +2787,16 @@
       <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
         <v>11</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <v>10</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="8">
         <v>10</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="8">
         <v>14</v>
       </c>
     </row>
@@ -2797,16 +2810,16 @@
       <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="8">
         <v>8</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
         <v>11</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="8">
         <v>15</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="8">
         <v>23</v>
       </c>
     </row>
@@ -2820,16 +2833,16 @@
       <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="8">
         <v>11</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <v>18</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="8">
         <v>34</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="8">
         <v>39</v>
       </c>
     </row>
@@ -2843,16 +2856,16 @@
       <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="8">
         <v>10</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>18</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="8">
         <v>35</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="8">
         <v>38</v>
       </c>
     </row>
@@ -2866,16 +2879,16 @@
       <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="8">
         <v>11</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <v>18</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="8">
         <v>35</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="8">
         <v>39</v>
       </c>
     </row>
@@ -2928,28 +2941,28 @@
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5">
-        <v>-22.96</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-36.72</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-40.83</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-39.590000000000003</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-51.72</v>
-      </c>
-      <c r="G2" s="5">
-        <v>-43.18</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="B2" s="7">
+        <v>-23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="E2" s="7">
+        <v>-39.6</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-51.7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-43.2</v>
+      </c>
+      <c r="H2" s="7">
         <v>10</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>26</v>
       </c>
     </row>
@@ -2957,28 +2970,28 @@
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
-        <v>-16.54</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-5.91</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-22.57</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-23.71</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B3" s="7">
+        <v>-16.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-5.9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-22.6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-23.7</v>
+      </c>
+      <c r="F3" s="7">
         <v>-27.2</v>
       </c>
-      <c r="G3" s="5">
-        <v>-19.190000000000001</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="7">
+        <v>-19.2</v>
+      </c>
+      <c r="H3" s="7">
         <v>8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>19</v>
       </c>
     </row>
@@ -2986,28 +2999,28 @@
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5">
-        <v>-31.35</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-26.79</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-40.130000000000003</v>
-      </c>
-      <c r="E4" s="5">
-        <v>-27.62</v>
-      </c>
-      <c r="F4" s="5">
-        <v>-36.520000000000003</v>
-      </c>
-      <c r="G4" s="5">
-        <v>-26.77</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="B4" s="7">
+        <v>-31.4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-26.8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-40.1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-27.6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-36.5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-26.8</v>
+      </c>
+      <c r="H4" s="7">
         <v>17</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="7">
         <v>23</v>
       </c>
     </row>
@@ -3015,28 +3028,28 @@
       <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>-14.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>-28.6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>-45.1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>-42.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>-52.1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>-57.8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>14</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>29</v>
       </c>
     </row>
@@ -3044,28 +3057,28 @@
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>-36.6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>-32.5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>-39</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>-34.299999999999997</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>-54.4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>-20.7</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>12</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>15</v>
       </c>
     </row>
@@ -3073,28 +3086,28 @@
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>-24.1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>-23.9</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>-24.2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>-26.7</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>-30.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>-19.399999999999999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>19</v>
       </c>
     </row>
@@ -3102,28 +3115,28 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>-53.3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>-38.5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>-56.6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>-61.1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>-59.3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>-48.6</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>9</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="7">
         <v>18</v>
       </c>
     </row>
@@ -3131,28 +3144,28 @@
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>-14.2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>6.7</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>-25.6</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>-31.3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>-44.1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>-6.4</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>10</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="7">
         <v>15</v>
       </c>
     </row>
@@ -3160,28 +3173,28 @@
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>-17.2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>-10.3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>-30.9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>-22.8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>-46</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>-25.7</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>16</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="7">
         <v>20</v>
       </c>
     </row>
@@ -3189,28 +3202,28 @@
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>-2.1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>1.2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>-0.3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>2.6</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="7">
         <v>20</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="7">
         <v>20</v>
       </c>
     </row>
@@ -3218,28 +3231,28 @@
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>0.7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>10.5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>-0.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>3.3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>0.4</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>-2.1</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="7">
         <v>6</v>
       </c>
     </row>
@@ -3247,28 +3260,28 @@
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>94.6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>161.4</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>14.2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>31.9</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>-2.7</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>-5.9</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <v>27</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="7">
         <v>34</v>
       </c>
     </row>
@@ -3276,28 +3289,28 @@
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>14.6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>33.5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>7.3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>13.3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>-13.9</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <v>12.5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>15</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="7">
         <v>17</v>
       </c>
     </row>
@@ -3305,28 +3318,28 @@
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>0.5</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>-4.2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>0.1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>2.4</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
         <v>4.3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="7">
         <v>7</v>
       </c>
     </row>
@@ -3334,28 +3347,28 @@
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>-5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>-1.4</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>-6</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>-5.7</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>-5.3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>-7.3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <v>21</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="7">
         <v>21</v>
       </c>
     </row>
@@ -3363,28 +3376,28 @@
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>7.3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>6.3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>-0.8</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>0.7</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>-1.2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>5</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>32</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="7">
         <v>35</v>
       </c>
     </row>
@@ -3392,28 +3405,28 @@
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>-23.4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>-21.2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>-23.9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>-31.4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <v>-29.2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>-17.2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3421,28 +3434,28 @@
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>-54.6</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>-39.700000000000003</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>-65.2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>-62</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="7">
         <v>-70.3</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <v>-14.5</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="7">
         <v>22</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="7">
         <v>25</v>
       </c>
     </row>
@@ -3450,28 +3463,28 @@
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>-18.3</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>-18.3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>-22.1</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>-31.5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="7">
         <v>-39.4</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="7">
         <v>6</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="7">
         <v>7</v>
       </c>
     </row>
@@ -3479,28 +3492,28 @@
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>-20</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>-22.2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>-36.9</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>-21.6</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <v>1.7</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <v>-10.4</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="7">
         <v>22</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="7">
         <v>26</v>
       </c>
     </row>

--- a/output/Tables.xlsx
+++ b/output/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C88E63-5D72-EE4D-88D2-B8F83D11C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72471ECB-1934-E04E-8E00-7AB260708778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13500" xr2:uid="{F4A6B9BF-BE38-904B-96A9-470D518D7DAC}"/>
   </bookViews>
@@ -297,10 +297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +314,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -406,14 +412,17 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2959,10 +2968,10 @@
       <c r="G2" s="7">
         <v>-43.2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>10</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>26</v>
       </c>
     </row>
@@ -2988,10 +2997,10 @@
       <c r="G3" s="7">
         <v>-19.2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>8</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="10">
         <v>19</v>
       </c>
     </row>
@@ -3017,10 +3026,10 @@
       <c r="G4" s="7">
         <v>-26.8</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>17</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="10">
         <v>23</v>
       </c>
     </row>
@@ -3046,10 +3055,10 @@
       <c r="G5" s="7">
         <v>-57.8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>14</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="10">
         <v>29</v>
       </c>
     </row>
@@ -3075,10 +3084,10 @@
       <c r="G6" s="7">
         <v>-20.7</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <v>12</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="10">
         <v>15</v>
       </c>
     </row>
@@ -3104,10 +3113,10 @@
       <c r="G7" s="7">
         <v>-19.399999999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="10">
         <v>16</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="10">
         <v>19</v>
       </c>
     </row>
@@ -3133,10 +3142,10 @@
       <c r="G8" s="7">
         <v>-48.6</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="10">
         <v>9</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="10">
         <v>18</v>
       </c>
     </row>
@@ -3162,10 +3171,10 @@
       <c r="G9" s="7">
         <v>-6.4</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="10">
         <v>10</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="10">
         <v>15</v>
       </c>
     </row>
@@ -3191,10 +3200,10 @@
       <c r="G10" s="7">
         <v>-25.7</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="10">
         <v>16</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="10">
         <v>20</v>
       </c>
     </row>
@@ -3220,10 +3229,10 @@
       <c r="G11" s="7">
         <v>2.6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="10">
         <v>20</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="10">
         <v>20</v>
       </c>
     </row>
@@ -3249,10 +3258,10 @@
       <c r="G12" s="7">
         <v>-2.1</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="10">
         <v>7</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3278,10 +3287,10 @@
       <c r="G13" s="7">
         <v>-5.9</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="10">
         <v>27</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="10">
         <v>34</v>
       </c>
     </row>
@@ -3307,10 +3316,10 @@
       <c r="G14" s="7">
         <v>12.5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="10">
         <v>15</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="10">
         <v>17</v>
       </c>
     </row>
@@ -3336,10 +3345,10 @@
       <c r="G15" s="7">
         <v>4.3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="10">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3365,10 +3374,10 @@
       <c r="G16" s="7">
         <v>-7.3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="10">
         <v>21</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="10">
         <v>21</v>
       </c>
     </row>
@@ -3394,10 +3403,10 @@
       <c r="G17" s="7">
         <v>5</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="10">
         <v>32</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="10">
         <v>35</v>
       </c>
     </row>
@@ -3423,10 +3432,10 @@
       <c r="G18" s="7">
         <v>-17.2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="10">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="10">
         <v>4</v>
       </c>
     </row>
@@ -3452,10 +3461,10 @@
       <c r="G19" s="7">
         <v>-14.5</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="10">
         <v>22</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="10">
         <v>25</v>
       </c>
     </row>
@@ -3481,10 +3490,10 @@
       <c r="G20" s="7">
         <v>-39.4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="10">
         <v>6</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3510,10 +3519,10 @@
       <c r="G21" s="7">
         <v>-10.4</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="10">
         <v>22</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="10">
         <v>26</v>
       </c>
     </row>
